--- a/MainTop/30.12.2024/таня месяц с 30.11.2024 по 30.12.2024/спрос_30-12-2024 таня месяц с 30-11-2024 по 30-12-2024_sorted.xlsx
+++ b/MainTop/30.12.2024/таня месяц с 30.11.2024 по 30.12.2024/спрос_30-12-2024 таня месяц с 30-11-2024 по 30-12-2024_sorted.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\30.12.2024\таня месяц с 30.11.2024 по 30.12.2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFE79EC-13B0-4DA3-AFF4-253954F38270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A5266E-F387-42F9-A358-CFA3FD7026C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -547,7 +547,7 @@
     <t>Термонаклейка Формы термозаплатка</t>
   </si>
   <si>
-    <t>остваить все</t>
+    <t>оставить</t>
   </si>
 </sst>
 </file>
@@ -568,7 +568,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -584,6 +584,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,7 +632,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -636,6 +642,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -940,13 +947,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="M140" sqref="M140"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="1" max="1" width="46.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -998,7 +1007,7 @@
         <v>14</v>
       </c>
       <c r="F2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" s="2">
         <v>1249</v>
@@ -1008,6 +1017,10 @@
       </c>
       <c r="I2" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="J2">
+        <f>H2-F2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1027,7 +1040,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="2">
         <v>1249</v>
@@ -1037,6 +1050,10 @@
       </c>
       <c r="I3" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J66" si="0">H3-F3</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1067,6 +1084,10 @@
       <c r="I4" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -1095,6 +1116,10 @@
       </c>
       <c r="I5" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1114,7 +1139,7 @@
         <v>14</v>
       </c>
       <c r="F6" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" s="2">
         <v>1249</v>
@@ -1124,6 +1149,10 @@
       </c>
       <c r="I6" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1143,7 +1172,7 @@
         <v>14</v>
       </c>
       <c r="F7" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" s="2">
         <v>1249</v>
@@ -1153,6 +1182,10 @@
       </c>
       <c r="I7" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1172,7 +1205,7 @@
         <v>14</v>
       </c>
       <c r="F8" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G8" s="2">
         <v>1249</v>
@@ -1182,6 +1215,10 @@
       </c>
       <c r="I8" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1212,6 +1249,10 @@
       <c r="I9" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -1230,7 +1271,7 @@
         <v>14</v>
       </c>
       <c r="F10" s="2">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G10" s="2">
         <v>1249</v>
@@ -1240,6 +1281,10 @@
       </c>
       <c r="I10" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1259,7 +1304,7 @@
         <v>14</v>
       </c>
       <c r="F11" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G11" s="2">
         <v>1249</v>
@@ -1269,6 +1314,10 @@
       </c>
       <c r="I11" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1288,7 +1337,7 @@
         <v>14</v>
       </c>
       <c r="F12" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G12" s="2">
         <v>1249</v>
@@ -1298,6 +1347,10 @@
       </c>
       <c r="I12" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1317,7 +1370,7 @@
         <v>14</v>
       </c>
       <c r="F13" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G13" s="2">
         <v>1249</v>
@@ -1327,6 +1380,10 @@
       </c>
       <c r="I13" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1346,7 +1403,7 @@
         <v>14</v>
       </c>
       <c r="F14" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G14" s="2">
         <v>1249</v>
@@ -1356,6 +1413,10 @@
       </c>
       <c r="I14" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1375,7 +1436,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G15" s="2">
         <v>1249</v>
@@ -1385,6 +1446,10 @@
       </c>
       <c r="I15" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1404,7 +1469,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G16" s="2">
         <v>1249</v>
@@ -1414,6 +1479,10 @@
       </c>
       <c r="I16" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1433,7 +1502,7 @@
         <v>14</v>
       </c>
       <c r="F17" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G17" s="2">
         <v>1249</v>
@@ -1443,6 +1512,10 @@
       </c>
       <c r="I17" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1462,7 +1535,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G18" s="2">
         <v>1249</v>
@@ -1472,6 +1545,10 @@
       </c>
       <c r="I18" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1491,7 +1568,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G19" s="2">
         <v>1249</v>
@@ -1501,6 +1578,10 @@
       </c>
       <c r="I19" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1520,7 +1601,7 @@
         <v>14</v>
       </c>
       <c r="F20" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G20" s="2">
         <v>1249</v>
@@ -1530,6 +1611,10 @@
       </c>
       <c r="I20" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1560,6 +1645,10 @@
       <c r="I21" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
@@ -1578,7 +1667,7 @@
         <v>14</v>
       </c>
       <c r="F22" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G22" s="4">
         <v>1249</v>
@@ -1589,11 +1678,14 @@
       <c r="I22" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J22" s="4"/>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="4">
@@ -1609,7 +1701,7 @@
         <v>14</v>
       </c>
       <c r="F23" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G23" s="4">
         <v>1249</v>
@@ -1620,7 +1712,10 @@
       <c r="I23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J23" s="4"/>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1651,7 +1746,10 @@
       <c r="I24" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J24" s="4"/>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K24" s="4"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1682,9 +1780,9 @@
       <c r="I25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J25" s="4">
-        <f>SUM(H2:H21)</f>
-        <v>358</v>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K25" s="4"/>
     </row>
@@ -1716,9 +1814,9 @@
       <c r="I26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J26" s="4">
-        <f>SUM(H22:H108)</f>
-        <v>362</v>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K26" s="4"/>
     </row>
@@ -1750,9 +1848,9 @@
       <c r="I27" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J27" s="4">
-        <f>SUM(H109:H200)</f>
-        <v>392</v>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K27" s="4"/>
     </row>
@@ -1784,7 +1882,10 @@
       <c r="I28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J28" s="4"/>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K28" s="4"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1815,7 +1916,10 @@
       <c r="I29" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J29" s="4"/>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K29" s="4"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1835,7 +1939,7 @@
         <v>14</v>
       </c>
       <c r="F30" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G30" s="4">
         <v>1249</v>
@@ -1846,7 +1950,10 @@
       <c r="I30" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J30" s="4"/>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K30" s="4"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1866,7 +1973,7 @@
         <v>14</v>
       </c>
       <c r="F31" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G31" s="4">
         <v>1249</v>
@@ -1877,7 +1984,10 @@
       <c r="I31" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="4"/>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K31" s="4"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1897,7 +2007,7 @@
         <v>14</v>
       </c>
       <c r="F32" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G32" s="4">
         <v>1249</v>
@@ -1908,7 +2018,10 @@
       <c r="I32" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J32" s="4"/>
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K32" s="4"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -1928,7 +2041,7 @@
         <v>14</v>
       </c>
       <c r="F33" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G33" s="4">
         <v>1249</v>
@@ -1939,7 +2052,10 @@
       <c r="I33" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J33" s="4"/>
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -1959,7 +2075,7 @@
         <v>14</v>
       </c>
       <c r="F34" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G34" s="4">
         <v>1249</v>
@@ -1970,7 +2086,10 @@
       <c r="I34" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J34" s="4"/>
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K34" s="4"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -1990,7 +2109,7 @@
         <v>14</v>
       </c>
       <c r="F35" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G35" s="4">
         <v>1249</v>
@@ -2001,7 +2120,10 @@
       <c r="I35" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J35" s="4"/>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K35" s="4"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2021,7 +2143,7 @@
         <v>14</v>
       </c>
       <c r="F36" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G36" s="4">
         <v>1249</v>
@@ -2032,11 +2154,14 @@
       <c r="I36" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J36" s="4"/>
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K36" s="4"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B37" s="4">
@@ -2052,7 +2177,7 @@
         <v>14</v>
       </c>
       <c r="F37" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G37" s="4">
         <v>1249</v>
@@ -2063,7 +2188,10 @@
       <c r="I37" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J37" s="4"/>
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K37" s="4"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2094,7 +2222,10 @@
       <c r="I38" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J38" s="4"/>
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K38" s="4"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2125,7 +2256,10 @@
       <c r="I39" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J39" s="4"/>
+      <c r="J39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K39" s="4"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2156,7 +2290,10 @@
       <c r="I40" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J40" s="4"/>
+      <c r="J40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K40" s="4"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2187,7 +2324,10 @@
       <c r="I41" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J41" s="4"/>
+      <c r="J41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K41" s="4"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2218,7 +2358,10 @@
       <c r="I42" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J42" s="4"/>
+      <c r="J42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K42" s="4"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2249,7 +2392,10 @@
       <c r="I43" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J43" s="4"/>
+      <c r="J43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K43" s="4"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -2280,7 +2426,10 @@
       <c r="I44" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J44" s="4"/>
+      <c r="J44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K44" s="4"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2311,7 +2460,10 @@
       <c r="I45" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J45" s="4"/>
+      <c r="J45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K45" s="4"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2342,7 +2494,10 @@
       <c r="I46" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J46" s="4"/>
+      <c r="J46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K46" s="4"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -2373,7 +2528,10 @@
       <c r="I47" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J47" s="4"/>
+      <c r="J47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K47" s="4"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2404,7 +2562,10 @@
       <c r="I48" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J48" s="4"/>
+      <c r="J48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K48" s="4"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -2435,7 +2596,10 @@
       <c r="I49" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J49" s="4"/>
+      <c r="J49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K49" s="4"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -2466,7 +2630,10 @@
       <c r="I50" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J50" s="4"/>
+      <c r="J50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K50" s="4"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -2497,7 +2664,10 @@
       <c r="I51" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="4"/>
+      <c r="J51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K51" s="4"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -2528,7 +2698,10 @@
       <c r="I52" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J52" s="4"/>
+      <c r="J52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K52" s="4"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -2559,7 +2732,10 @@
       <c r="I53" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J53" s="4"/>
+      <c r="J53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K53" s="4"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -2590,7 +2766,10 @@
       <c r="I54" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="4"/>
+      <c r="J54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K54" s="4"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -2621,7 +2800,10 @@
       <c r="I55" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J55" s="4"/>
+      <c r="J55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K55" s="4"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -2652,7 +2834,10 @@
       <c r="I56" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J56" s="4"/>
+      <c r="J56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K56" s="4"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -2683,7 +2868,10 @@
       <c r="I57" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J57" s="4"/>
+      <c r="J57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K57" s="4"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -2714,7 +2902,10 @@
       <c r="I58" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J58" s="4"/>
+      <c r="J58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K58" s="4"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -2745,7 +2936,10 @@
       <c r="I59" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J59" s="4"/>
+      <c r="J59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K59" s="4"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -2776,7 +2970,10 @@
       <c r="I60" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J60" s="4"/>
+      <c r="J60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K60" s="4"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -2807,7 +3004,10 @@
       <c r="I61" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J61" s="4"/>
+      <c r="J61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K61" s="4"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -2838,7 +3038,10 @@
       <c r="I62" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J62" s="4"/>
+      <c r="J62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K62" s="4"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -2869,7 +3072,10 @@
       <c r="I63" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J63" s="4"/>
+      <c r="J63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K63" s="4"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -2900,7 +3106,10 @@
       <c r="I64" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J64" s="4"/>
+      <c r="J64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K64" s="4"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -2931,7 +3140,10 @@
       <c r="I65" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="4"/>
+      <c r="J65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K65" s="4"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -2962,7 +3174,10 @@
       <c r="I66" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J66" s="4"/>
+      <c r="J66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K66" s="4"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -2993,7 +3208,10 @@
       <c r="I67" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J67" s="4"/>
+      <c r="J67">
+        <f t="shared" ref="J67:J130" si="1">H67-F67</f>
+        <v>0</v>
+      </c>
       <c r="K67" s="4"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -3024,7 +3242,10 @@
       <c r="I68" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J68" s="4"/>
+      <c r="J68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K68" s="4"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -3055,7 +3276,10 @@
       <c r="I69" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J69" s="4"/>
+      <c r="J69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K69" s="4"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -3075,7 +3299,7 @@
         <v>14</v>
       </c>
       <c r="F70" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G70" s="4">
         <v>1249</v>
@@ -3086,7 +3310,10 @@
       <c r="I70" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J70" s="4"/>
+      <c r="J70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K70" s="4"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -3106,7 +3333,7 @@
         <v>14</v>
       </c>
       <c r="F71" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G71" s="4">
         <v>1249</v>
@@ -3117,7 +3344,10 @@
       <c r="I71" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="4"/>
+      <c r="J71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K71" s="4"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -3137,7 +3367,7 @@
         <v>14</v>
       </c>
       <c r="F72" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G72" s="4">
         <v>1249</v>
@@ -3148,7 +3378,10 @@
       <c r="I72" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J72" s="4"/>
+      <c r="J72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K72" s="4"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -3168,7 +3401,7 @@
         <v>14</v>
       </c>
       <c r="F73" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G73" s="4">
         <v>1249</v>
@@ -3179,7 +3412,10 @@
       <c r="I73" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J73" s="4"/>
+      <c r="J73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K73" s="4"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -3199,7 +3435,7 @@
         <v>14</v>
       </c>
       <c r="F74" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G74" s="4">
         <v>1249</v>
@@ -3210,7 +3446,10 @@
       <c r="I74" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J74" s="4"/>
+      <c r="J74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K74" s="4"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -3230,7 +3469,7 @@
         <v>14</v>
       </c>
       <c r="F75" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G75" s="4">
         <v>1249</v>
@@ -3241,7 +3480,10 @@
       <c r="I75" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J75" s="4"/>
+      <c r="J75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K75" s="4"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -3261,7 +3503,7 @@
         <v>14</v>
       </c>
       <c r="F76" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G76" s="4">
         <v>1249</v>
@@ -3272,7 +3514,10 @@
       <c r="I76" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J76" s="4"/>
+      <c r="J76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K76" s="4"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -3292,7 +3537,7 @@
         <v>14</v>
       </c>
       <c r="F77" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G77" s="4">
         <v>1249</v>
@@ -3303,7 +3548,10 @@
       <c r="I77" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J77" s="4"/>
+      <c r="J77">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K77" s="4"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -3323,7 +3571,7 @@
         <v>14</v>
       </c>
       <c r="F78" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G78" s="4">
         <v>1249</v>
@@ -3334,7 +3582,10 @@
       <c r="I78" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J78" s="4"/>
+      <c r="J78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K78" s="4"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -3354,7 +3605,7 @@
         <v>14</v>
       </c>
       <c r="F79" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G79" s="4">
         <v>1249</v>
@@ -3365,7 +3616,10 @@
       <c r="I79" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J79" s="4"/>
+      <c r="J79">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K79" s="4"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -3385,7 +3639,7 @@
         <v>14</v>
       </c>
       <c r="F80" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G80" s="4">
         <v>1249</v>
@@ -3396,7 +3650,10 @@
       <c r="I80" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J80" s="4"/>
+      <c r="J80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K80" s="4"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -3416,7 +3673,7 @@
         <v>14</v>
       </c>
       <c r="F81" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G81" s="4">
         <v>1249</v>
@@ -3427,7 +3684,10 @@
       <c r="I81" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J81" s="4"/>
+      <c r="J81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K81" s="4"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -3447,7 +3707,7 @@
         <v>14</v>
       </c>
       <c r="F82" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G82" s="4">
         <v>1249</v>
@@ -3458,7 +3718,10 @@
       <c r="I82" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J82" s="4"/>
+      <c r="J82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K82" s="4"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -3478,7 +3741,7 @@
         <v>14</v>
       </c>
       <c r="F83" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G83" s="4">
         <v>1249</v>
@@ -3489,7 +3752,10 @@
       <c r="I83" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J83" s="4"/>
+      <c r="J83">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K83" s="4"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -3509,7 +3775,7 @@
         <v>14</v>
       </c>
       <c r="F84" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G84" s="4">
         <v>1249</v>
@@ -3520,7 +3786,10 @@
       <c r="I84" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J84" s="4"/>
+      <c r="J84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K84" s="4"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -3540,7 +3809,7 @@
         <v>14</v>
       </c>
       <c r="F85" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G85" s="4">
         <v>1249</v>
@@ -3551,7 +3820,10 @@
       <c r="I85" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J85" s="4"/>
+      <c r="J85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K85" s="4"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -3571,7 +3843,7 @@
         <v>14</v>
       </c>
       <c r="F86" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G86" s="4">
         <v>1249</v>
@@ -3582,7 +3854,10 @@
       <c r="I86" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J86" s="4"/>
+      <c r="J86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K86" s="4"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -3602,7 +3877,7 @@
         <v>14</v>
       </c>
       <c r="F87" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G87" s="4">
         <v>1249</v>
@@ -3613,7 +3888,10 @@
       <c r="I87" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J87" s="4"/>
+      <c r="J87">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K87" s="4"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -3633,7 +3911,7 @@
         <v>14</v>
       </c>
       <c r="F88" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G88" s="4">
         <v>1249</v>
@@ -3644,7 +3922,10 @@
       <c r="I88" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J88" s="4"/>
+      <c r="J88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K88" s="4"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -3664,7 +3945,7 @@
         <v>14</v>
       </c>
       <c r="F89" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G89" s="4">
         <v>1249</v>
@@ -3675,7 +3956,10 @@
       <c r="I89" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J89" s="4"/>
+      <c r="J89">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K89" s="4"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -3695,7 +3979,7 @@
         <v>14</v>
       </c>
       <c r="F90" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G90" s="4">
         <v>1249</v>
@@ -3706,7 +3990,10 @@
       <c r="I90" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J90" s="4"/>
+      <c r="J90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K90" s="4"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -3726,7 +4013,7 @@
         <v>14</v>
       </c>
       <c r="F91" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G91" s="4">
         <v>1249</v>
@@ -3737,7 +4024,10 @@
       <c r="I91" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="4"/>
+      <c r="J91">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K91" s="4"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -3757,7 +4047,7 @@
         <v>14</v>
       </c>
       <c r="F92" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G92" s="4">
         <v>1249</v>
@@ -3768,7 +4058,10 @@
       <c r="I92" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J92" s="4"/>
+      <c r="J92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K92" s="4"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -3788,7 +4081,7 @@
         <v>14</v>
       </c>
       <c r="F93" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G93" s="4">
         <v>1249</v>
@@ -3799,7 +4092,10 @@
       <c r="I93" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J93" s="4"/>
+      <c r="J93">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K93" s="4"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -3819,7 +4115,7 @@
         <v>14</v>
       </c>
       <c r="F94" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G94" s="4">
         <v>1249</v>
@@ -3830,7 +4126,10 @@
       <c r="I94" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J94" s="4"/>
+      <c r="J94">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K94" s="4"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -3850,7 +4149,7 @@
         <v>14</v>
       </c>
       <c r="F95" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G95" s="4">
         <v>1249</v>
@@ -3861,7 +4160,10 @@
       <c r="I95" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J95" s="4"/>
+      <c r="J95">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K95" s="4"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -3881,7 +4183,7 @@
         <v>14</v>
       </c>
       <c r="F96" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G96" s="4">
         <v>1249</v>
@@ -3892,7 +4194,10 @@
       <c r="I96" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J96" s="4"/>
+      <c r="J96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K96" s="4"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -3912,7 +4217,7 @@
         <v>14</v>
       </c>
       <c r="F97" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G97" s="4">
         <v>1249</v>
@@ -3923,7 +4228,10 @@
       <c r="I97" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J97" s="4"/>
+      <c r="J97">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K97" s="4"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -3943,7 +4251,7 @@
         <v>14</v>
       </c>
       <c r="F98" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G98" s="4">
         <v>1249</v>
@@ -3954,7 +4262,10 @@
       <c r="I98" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J98" s="4"/>
+      <c r="J98">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K98" s="4"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -3974,7 +4285,7 @@
         <v>14</v>
       </c>
       <c r="F99" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G99" s="4">
         <v>1249</v>
@@ -3985,7 +4296,10 @@
       <c r="I99" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J99" s="4"/>
+      <c r="J99">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K99" s="4"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -4005,7 +4319,7 @@
         <v>14</v>
       </c>
       <c r="F100" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G100" s="4">
         <v>1249</v>
@@ -4016,7 +4330,10 @@
       <c r="I100" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J100" s="4"/>
+      <c r="J100">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K100" s="4"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -4036,7 +4353,7 @@
         <v>14</v>
       </c>
       <c r="F101" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G101" s="4">
         <v>1249</v>
@@ -4047,7 +4364,10 @@
       <c r="I101" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J101" s="4"/>
+      <c r="J101">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K101" s="4"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -4067,7 +4387,7 @@
         <v>14</v>
       </c>
       <c r="F102" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G102" s="4">
         <v>1249</v>
@@ -4078,7 +4398,10 @@
       <c r="I102" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J102" s="4"/>
+      <c r="J102">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K102" s="4"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -4098,7 +4421,7 @@
         <v>14</v>
       </c>
       <c r="F103" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G103" s="4">
         <v>1249</v>
@@ -4109,7 +4432,10 @@
       <c r="I103" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J103" s="4"/>
+      <c r="J103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K103" s="4"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -4129,7 +4455,7 @@
         <v>14</v>
       </c>
       <c r="F104" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G104" s="4">
         <v>1249</v>
@@ -4140,7 +4466,10 @@
       <c r="I104" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J104" s="4"/>
+      <c r="J104">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K104" s="4"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -4160,7 +4489,7 @@
         <v>14</v>
       </c>
       <c r="F105" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G105" s="4">
         <v>1249</v>
@@ -4171,7 +4500,10 @@
       <c r="I105" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J105" s="4"/>
+      <c r="J105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K105" s="4"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -4191,7 +4523,7 @@
         <v>14</v>
       </c>
       <c r="F106" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G106" s="4">
         <v>1249</v>
@@ -4202,7 +4534,10 @@
       <c r="I106" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J106" s="4"/>
+      <c r="J106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K106" s="4"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -4222,7 +4557,7 @@
         <v>14</v>
       </c>
       <c r="F107" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G107" s="4">
         <v>1249</v>
@@ -4233,7 +4568,10 @@
       <c r="I107" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J107" s="4"/>
+      <c r="J107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K107" s="4"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -4253,7 +4591,7 @@
         <v>14</v>
       </c>
       <c r="F108" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G108" s="4">
         <v>1249</v>
@@ -4264,7 +4602,10 @@
       <c r="I108" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J108" s="4"/>
+      <c r="J108">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K108" s="4"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -4284,7 +4625,7 @@
         <v>14</v>
       </c>
       <c r="F109" s="4">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G109" s="4">
         <v>1249</v>
@@ -4295,9 +4636,9 @@
       <c r="I109" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J109" s="4">
-        <f>H109/4</f>
-        <v>12</v>
+      <c r="J109">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K109" s="4"/>
     </row>
@@ -4318,7 +4659,7 @@
         <v>14</v>
       </c>
       <c r="F110" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G110" s="4">
         <v>1249</v>
@@ -4329,9 +4670,9 @@
       <c r="I110" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J110" s="4">
-        <f t="shared" ref="J110:J164" si="0">H110/4</f>
-        <v>9</v>
+      <c r="J110">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K110" s="4"/>
     </row>
@@ -4363,9 +4704,9 @@
       <c r="I111" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J111" s="4">
-        <f t="shared" si="0"/>
-        <v>7</v>
+      <c r="J111">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K111" s="4"/>
     </row>
@@ -4386,7 +4727,7 @@
         <v>14</v>
       </c>
       <c r="F112" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G112" s="4">
         <v>1249</v>
@@ -4397,9 +4738,9 @@
       <c r="I112" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J112" s="4">
-        <f t="shared" si="0"/>
-        <v>4</v>
+      <c r="J112">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K112" s="4"/>
     </row>
@@ -4420,7 +4761,7 @@
         <v>14</v>
       </c>
       <c r="F113" s="4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G113" s="4">
         <v>1249</v>
@@ -4431,9 +4772,9 @@
       <c r="I113" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J113" s="4">
-        <f t="shared" si="0"/>
-        <v>4</v>
+      <c r="J113">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K113" s="4"/>
     </row>
@@ -4454,7 +4795,7 @@
         <v>14</v>
       </c>
       <c r="F114" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G114" s="4">
         <v>1249</v>
@@ -4465,9 +4806,9 @@
       <c r="I114" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J114" s="4">
-        <f t="shared" si="0"/>
-        <v>3</v>
+      <c r="J114">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K114" s="4"/>
     </row>
@@ -4488,7 +4829,7 @@
         <v>14</v>
       </c>
       <c r="F115" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G115" s="4">
         <v>1249</v>
@@ -4499,9 +4840,9 @@
       <c r="I115" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J115" s="4">
-        <f t="shared" si="0"/>
-        <v>3</v>
+      <c r="J115">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K115" s="4"/>
     </row>
@@ -4533,9 +4874,9 @@
       <c r="I116" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J116" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="J116">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K116" s="4"/>
     </row>
@@ -4556,7 +4897,7 @@
         <v>14</v>
       </c>
       <c r="F117" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G117" s="4">
         <v>1249</v>
@@ -4567,9 +4908,9 @@
       <c r="I117" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J117" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="J117">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K117" s="4"/>
     </row>
@@ -4590,7 +4931,7 @@
         <v>14</v>
       </c>
       <c r="F118" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G118" s="4">
         <v>1249</v>
@@ -4601,9 +4942,9 @@
       <c r="I118" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J118" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="J118">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K118" s="4"/>
     </row>
@@ -4624,7 +4965,7 @@
         <v>14</v>
       </c>
       <c r="F119" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G119" s="4">
         <v>1249</v>
@@ -4635,9 +4976,9 @@
       <c r="I119" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J119" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="J119">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K119" s="4"/>
     </row>
@@ -4658,7 +4999,7 @@
         <v>14</v>
       </c>
       <c r="F120" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G120" s="4">
         <v>1249</v>
@@ -4669,9 +5010,9 @@
       <c r="I120" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J120" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="J120">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K120" s="4"/>
     </row>
@@ -4692,7 +5033,7 @@
         <v>14</v>
       </c>
       <c r="F121" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G121" s="4">
         <v>1249</v>
@@ -4703,9 +5044,9 @@
       <c r="I121" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J121" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="J121">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K121" s="4"/>
     </row>
@@ -4726,7 +5067,7 @@
         <v>14</v>
       </c>
       <c r="F122" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G122" s="4">
         <v>1249</v>
@@ -4737,9 +5078,9 @@
       <c r="I122" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J122" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="J122">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K122" s="4"/>
     </row>
@@ -4771,9 +5112,9 @@
       <c r="I123" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J123" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="J123">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K123" s="4"/>
     </row>
@@ -4805,9 +5146,9 @@
       <c r="I124" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J124" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="J124">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K124" s="4"/>
     </row>
@@ -4839,9 +5180,9 @@
       <c r="I125" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J125" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="J125">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K125" s="4"/>
     </row>
@@ -4873,9 +5214,9 @@
       <c r="I126" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J126" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="J126">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K126" s="4"/>
     </row>
@@ -4907,9 +5248,9 @@
       <c r="I127" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J127" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="J127">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K127" s="4"/>
     </row>
@@ -4941,9 +5282,9 @@
       <c r="I128" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J128" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="J128">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K128" s="4"/>
     </row>
@@ -4975,8 +5316,8 @@
       <c r="I129" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J129" s="4">
-        <f t="shared" si="0"/>
+      <c r="J129">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K129" s="4"/>
@@ -5009,8 +5350,8 @@
       <c r="I130" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J130" s="4">
-        <f t="shared" si="0"/>
+      <c r="J130">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K130" s="4"/>
@@ -5043,8 +5384,8 @@
       <c r="I131" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J131" s="4">
-        <f t="shared" si="0"/>
+      <c r="J131">
+        <f t="shared" ref="J131:J164" si="2">H131-F131</f>
         <v>1</v>
       </c>
       <c r="K131" s="4"/>
@@ -5077,8 +5418,8 @@
       <c r="I132" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J132" s="4">
-        <f t="shared" si="0"/>
+      <c r="J132">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K132" s="4"/>
@@ -5111,8 +5452,8 @@
       <c r="I133" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J133" s="4">
-        <f t="shared" si="0"/>
+      <c r="J133">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K133" s="4"/>
@@ -5145,8 +5486,8 @@
       <c r="I134" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J134" s="4">
-        <f t="shared" si="0"/>
+      <c r="J134">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K134" s="4"/>
@@ -5179,8 +5520,8 @@
       <c r="I135" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J135" s="4">
-        <f t="shared" si="0"/>
+      <c r="J135">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K135" s="4"/>
@@ -5213,8 +5554,8 @@
       <c r="I136" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J136" s="4">
-        <f t="shared" si="0"/>
+      <c r="J136">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K136" s="4"/>
@@ -5247,8 +5588,8 @@
       <c r="I137" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J137" s="4">
-        <f t="shared" si="0"/>
+      <c r="J137">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K137" s="4"/>
@@ -5281,8 +5622,8 @@
       <c r="I138" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J138" s="4">
-        <f t="shared" si="0"/>
+      <c r="J138">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K138" s="4"/>
@@ -5315,8 +5656,8 @@
       <c r="I139" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J139" s="4">
-        <f t="shared" si="0"/>
+      <c r="J139">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K139" s="4"/>
@@ -5349,8 +5690,8 @@
       <c r="I140" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J140" s="4">
-        <f t="shared" si="0"/>
+      <c r="J140">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K140" s="4"/>
@@ -5383,8 +5724,8 @@
       <c r="I141" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J141" s="4">
-        <f t="shared" si="0"/>
+      <c r="J141">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K141" s="4"/>
@@ -5417,8 +5758,8 @@
       <c r="I142" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J142" s="4">
-        <f t="shared" si="0"/>
+      <c r="J142">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K142" s="4"/>
@@ -5451,8 +5792,8 @@
       <c r="I143" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J143" s="4">
-        <f t="shared" si="0"/>
+      <c r="J143">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K143" s="4"/>
@@ -5485,8 +5826,8 @@
       <c r="I144" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J144" s="4">
-        <f t="shared" si="0"/>
+      <c r="J144">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K144" s="4"/>
@@ -5519,8 +5860,8 @@
       <c r="I145" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J145" s="4">
-        <f t="shared" si="0"/>
+      <c r="J145">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K145" s="4"/>
@@ -5542,7 +5883,7 @@
         <v>14</v>
       </c>
       <c r="F146" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G146" s="4">
         <v>1249</v>
@@ -5553,9 +5894,9 @@
       <c r="I146" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J146" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="J146">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="K146" s="4"/>
     </row>
@@ -5576,7 +5917,7 @@
         <v>14</v>
       </c>
       <c r="F147" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G147" s="2">
         <v>1249</v>
@@ -5587,13 +5928,11 @@
       <c r="I147" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J147" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K147" s="2">
-        <v>1</v>
-      </c>
+      <c r="J147">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K147" s="2"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
@@ -5612,7 +5951,7 @@
         <v>14</v>
       </c>
       <c r="F148" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G148" s="2">
         <v>1249</v>
@@ -5623,13 +5962,11 @@
       <c r="I148" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J148" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K148" s="2">
-        <v>1</v>
-      </c>
+      <c r="J148">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K148" s="2"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
@@ -5648,7 +5985,7 @@
         <v>14</v>
       </c>
       <c r="F149" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G149" s="2">
         <v>1249</v>
@@ -5659,13 +5996,11 @@
       <c r="I149" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J149" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K149" s="2">
-        <v>1</v>
-      </c>
+      <c r="J149">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K149" s="2"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
@@ -5684,7 +6019,7 @@
         <v>14</v>
       </c>
       <c r="F150" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G150" s="2">
         <v>1249</v>
@@ -5695,13 +6030,11 @@
       <c r="I150" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J150" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K150" s="2">
-        <v>1</v>
-      </c>
+      <c r="J150">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K150" s="2"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
@@ -5720,7 +6053,7 @@
         <v>14</v>
       </c>
       <c r="F151" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G151" s="2">
         <v>1249</v>
@@ -5731,13 +6064,11 @@
       <c r="I151" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J151" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K151" s="2">
-        <v>1</v>
-      </c>
+      <c r="J151">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K151" s="2"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
@@ -5756,7 +6087,7 @@
         <v>14</v>
       </c>
       <c r="F152" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G152" s="2">
         <v>1249</v>
@@ -5767,13 +6098,11 @@
       <c r="I152" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J152" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K152" s="2">
-        <v>1</v>
-      </c>
+      <c r="J152">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K152" s="2"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
@@ -5792,7 +6121,7 @@
         <v>14</v>
       </c>
       <c r="F153" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G153" s="2">
         <v>1249</v>
@@ -5803,13 +6132,11 @@
       <c r="I153" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J153" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K153" s="2">
-        <v>1</v>
-      </c>
+      <c r="J153">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K153" s="2"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
@@ -5828,7 +6155,7 @@
         <v>14</v>
       </c>
       <c r="F154" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G154" s="2">
         <v>1249</v>
@@ -5839,13 +6166,11 @@
       <c r="I154" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J154" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K154" s="2">
-        <v>1</v>
-      </c>
+      <c r="J154">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K154" s="2"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
@@ -5864,7 +6189,7 @@
         <v>14</v>
       </c>
       <c r="F155" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G155" s="2">
         <v>1249</v>
@@ -5875,13 +6200,11 @@
       <c r="I155" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J155" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K155" s="2">
-        <v>1</v>
-      </c>
+      <c r="J155">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K155" s="2"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
@@ -5900,7 +6223,7 @@
         <v>14</v>
       </c>
       <c r="F156" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G156" s="2">
         <v>1249</v>
@@ -5911,13 +6234,11 @@
       <c r="I156" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J156" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K156" s="2">
-        <v>1</v>
-      </c>
+      <c r="J156">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K156" s="2"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
@@ -5936,7 +6257,7 @@
         <v>14</v>
       </c>
       <c r="F157" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G157" s="2">
         <v>1249</v>
@@ -5947,13 +6268,11 @@
       <c r="I157" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J157" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K157" s="2">
-        <v>1</v>
-      </c>
+      <c r="J157">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K157" s="2"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
@@ -5972,7 +6291,7 @@
         <v>14</v>
       </c>
       <c r="F158" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G158" s="2">
         <v>1249</v>
@@ -5983,13 +6302,11 @@
       <c r="I158" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J158" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K158" s="2">
-        <v>1</v>
-      </c>
+      <c r="J158">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K158" s="2"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
@@ -6008,7 +6325,7 @@
         <v>14</v>
       </c>
       <c r="F159" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G159" s="2">
         <v>1249</v>
@@ -6019,13 +6336,11 @@
       <c r="I159" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J159" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K159" s="2">
-        <v>1</v>
-      </c>
+      <c r="J159">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K159" s="2"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
@@ -6044,7 +6359,7 @@
         <v>14</v>
       </c>
       <c r="F160" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G160" s="2">
         <v>1249</v>
@@ -6055,13 +6370,11 @@
       <c r="I160" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J160" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K160" s="2">
-        <v>1</v>
-      </c>
+      <c r="J160">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K160" s="2"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
@@ -6080,7 +6393,7 @@
         <v>14</v>
       </c>
       <c r="F161" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G161" s="2">
         <v>1249</v>
@@ -6091,13 +6404,11 @@
       <c r="I161" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J161" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K161" s="2">
-        <v>1</v>
-      </c>
+      <c r="J161">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K161" s="2"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
@@ -6116,7 +6427,7 @@
         <v>14</v>
       </c>
       <c r="F162" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G162" s="2">
         <v>1249</v>
@@ -6127,13 +6438,11 @@
       <c r="I162" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J162" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K162" s="2">
-        <v>1</v>
-      </c>
+      <c r="J162">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K162" s="2"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
@@ -6152,7 +6461,7 @@
         <v>14</v>
       </c>
       <c r="F163" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G163" s="2">
         <v>1249</v>
@@ -6163,13 +6472,11 @@
       <c r="I163" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J163" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K163" s="2">
-        <v>1</v>
-      </c>
+      <c r="J163">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K163" s="2"/>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
@@ -6188,7 +6495,7 @@
         <v>14</v>
       </c>
       <c r="F164" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G164" s="2">
         <v>1249</v>
@@ -6199,13 +6506,11 @@
       <c r="I164" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J164" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K164" s="2">
-        <v>1</v>
-      </c>
+      <c r="J164">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K164" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/MainTop/30.12.2024/таня месяц с 30.11.2024 по 30.12.2024/спрос_30-12-2024 таня месяц с 30-11-2024 по 30-12-2024_sorted.xlsx
+++ b/MainTop/30.12.2024/таня месяц с 30.11.2024 по 30.12.2024/спрос_30-12-2024 таня месяц с 30-11-2024 по 30-12-2024_sorted.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\30.12.2024\таня месяц с 30.11.2024 по 30.12.2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A5266E-F387-42F9-A358-CFA3FD7026C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E435A45-800C-4DAB-9F42-517A439F4EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -568,7 +568,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -584,12 +584,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,7 +626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -642,7 +636,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -947,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1685,7 +1678,7 @@
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="4">
@@ -2161,7 +2154,7 @@
       <c r="K36" s="4"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B37" s="4">
